--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12396F8F-6F6D-4EAD-A8B0-D5D1A0C33E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663A572C-CEBF-457D-9C7B-3F55B06C803E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Question</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/create-hello-world-function/solutions/3486895/day-o-1-why-you-should-prefer-arrow-function-syntax/?envType=study-plan-v2&amp;envId=30-days-of-javascript</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/counter/solutions/3491300/day2-o-1-understanding-closure-in-easy-way-and-its-practical-uses/?envType=study-plan-v2&amp;envId=30-days-of-javascript</t>
+  </si>
+  <si>
+    <t>2620. Counter</t>
+  </si>
+  <si>
+    <t>Use closure</t>
   </si>
 </sst>
 </file>
@@ -125,6 +134,14 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -142,14 +159,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -164,11 +173,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E2" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E3" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E3" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
-    <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{A349AA8E-36D2-4FF9-A657-CC131CF7978A}" name="Pattern"/>
     <tableColumn id="4" xr3:uid="{07EB6185-DC72-4A08-80B1-ED120C2D1672}" name="Notes"/>
     <tableColumn id="5" xr3:uid="{BB34738B-7493-40A0-90E3-4A50FA3F5A18}" name="Link" dataCellStyle="Hyperlink"/>
@@ -440,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,13 +498,31 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{B2B5E1F6-6623-4398-9CA9-8067410ACEB2}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{F390F321-A95C-4249-91D2-E1385B84BF2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663A572C-CEBF-457D-9C7B-3F55B06C803E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D228DA85-6A7C-4E91-9D50-A329483F79BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Question</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>Use closure</t>
+  </si>
+  <si>
+    <t>2704. To Be Or Not To Be</t>
+  </si>
+  <si>
+    <t>You can return functions in JS. Also, use guard clauses for errors if possible: if (...) throw ...;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/to-be-or-not-to-be/solutions/3567095/full-thorough-explanation-simple-beginner-friendly/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
   </si>
 </sst>
 </file>
@@ -173,8 +182,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E3" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E3" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E4" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E4" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -449,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,14 +524,32 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{B2B5E1F6-6623-4398-9CA9-8067410ACEB2}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{F390F321-A95C-4249-91D2-E1385B84BF2D}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{5504969C-F181-4EC5-AFB1-255FEC3A9D8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D228DA85-6A7C-4E91-9D50-A329483F79BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42ADAEEB-605E-40FC-954C-BD0362348ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Question</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/to-be-or-not-to-be/solutions/3567095/full-thorough-explanation-simple-beginner-friendly/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/counter-ii/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
+  </si>
+  <si>
+    <t>2665. Counter 2</t>
+  </si>
+  <si>
+    <t>Closures, arrow functions are preferred. Need to use ++presentCount, not presentCount++.</t>
   </si>
 </sst>
 </file>
@@ -182,8 +191,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E4" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E4" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E5" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E5" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -458,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,15 +550,33 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{B2B5E1F6-6623-4398-9CA9-8067410ACEB2}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{F390F321-A95C-4249-91D2-E1385B84BF2D}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{5504969C-F181-4EC5-AFB1-255FEC3A9D8E}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{282DCF38-1E4C-4645-87BF-F9A0B48DCB2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42ADAEEB-605E-40FC-954C-BD0362348ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E20A9F-4156-44E3-9CBB-D6EC7D03CB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Question</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>Closures, arrow functions are preferred. Need to use ++presentCount, not presentCount++.</t>
+  </si>
+  <si>
+    <t>Basic Array Transformations</t>
+  </si>
+  <si>
+    <t>2635. Apply Transform Over Each Element in Array</t>
+  </si>
+  <si>
+    <t>For loop, or .reduce() method, or foreach().</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/apply-transform-over-each-element-in-array/solutions/3498378/day4-o-n-o-1-practicality-and-efficiency-are-two-sides-of-the-same-coin/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
   </si>
 </sst>
 </file>
@@ -191,8 +203,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E5" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E5" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E6" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -467,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,16 +579,34 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{B2B5E1F6-6623-4398-9CA9-8067410ACEB2}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{F390F321-A95C-4249-91D2-E1385B84BF2D}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{5504969C-F181-4EC5-AFB1-255FEC3A9D8E}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{282DCF38-1E4C-4645-87BF-F9A0B48DCB2C}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{53D9A1AA-225C-4CC1-A975-FE2285DDBB89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E20A9F-4156-44E3-9CBB-D6EC7D03CB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C4DB6E-9EAA-4C7B-B916-48EBFC41617A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Question</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/apply-transform-over-each-element-in-array/solutions/3498378/day4-o-n-o-1-practicality-and-efficiency-are-two-sides-of-the-same-coin/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
+  </si>
+  <si>
+    <t>2634. Filter Elements from Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/filter-elements-from-array/solutions/3502618/o-1-sc-solution-in-js-and-typescript-learn-js-with-question-day-5/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
+  </si>
+  <si>
+    <t>fn is a parameter in this function. Build a new array and .push() with the condition if (fn(arr[i], i) into the new array.</t>
   </si>
 </sst>
 </file>
@@ -203,8 +212,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E6" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E7" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E7" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -479,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,6 +605,23 @@
         <v>22</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{B2B5E1F6-6623-4398-9CA9-8067410ACEB2}"/>
@@ -603,10 +629,11 @@
     <hyperlink ref="E4" r:id="rId3" xr:uid="{5504969C-F181-4EC5-AFB1-255FEC3A9D8E}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{282DCF38-1E4C-4645-87BF-F9A0B48DCB2C}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{53D9A1AA-225C-4CC1-A975-FE2285DDBB89}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{48F263BE-1070-4617-A007-10CFC7ADFECF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C4DB6E-9EAA-4C7B-B916-48EBFC41617A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD66F7A1-41E9-47DE-A245-557AD718C21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Question</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>fn is a parameter in this function. Build a new array and .push() with the condition if (fn(arr[i], i) into the new array.</t>
+  </si>
+  <si>
+    <t>2626. Array Reduce Transformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/array-reduce-transformation/solutions/3506475/5-diff-method-solution-in-typescript-and-js-learn-js-with-question-day-6/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
+  </si>
+  <si>
+    <t>We can use a for loop, but JS has the .reduce() function.</t>
   </si>
 </sst>
 </file>
@@ -212,8 +221,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E7" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E7" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E8" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E8" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -488,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,6 +631,23 @@
         <v>24</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{B2B5E1F6-6623-4398-9CA9-8067410ACEB2}"/>
@@ -630,10 +656,11 @@
     <hyperlink ref="E5" r:id="rId4" xr:uid="{282DCF38-1E4C-4645-87BF-F9A0B48DCB2C}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{53D9A1AA-225C-4CC1-A975-FE2285DDBB89}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{48F263BE-1070-4617-A007-10CFC7ADFECF}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{D3345E9E-6C47-4199-B26B-55C100A1A1F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD66F7A1-41E9-47DE-A245-557AD718C21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B74360-BBEB-47A4-A44A-4EF5C0BF9AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Question</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>We can use a for loop, but JS has the .reduce() function.</t>
+  </si>
+  <si>
+    <t>Function Transformations</t>
+  </si>
+  <si>
+    <t>2629. Function Composition</t>
+  </si>
+  <si>
+    <t>Classic function composition. reduceRight() method does this function. We can manually implement recursively, or with a for loop. You can access functions by index then call them in JS. The ordering is crucial, we need to start from the end of the array to the start.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/function-composition/solutions/3510406/o-1-sc-learn-composition-solution-in-js-and-typescript-learn-reduceright-day-7/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
   </si>
 </sst>
 </file>
@@ -221,8 +233,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E8" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E8" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E9" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E9" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -497,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,6 +660,23 @@
         <v>27</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{B2B5E1F6-6623-4398-9CA9-8067410ACEB2}"/>
@@ -657,10 +686,11 @@
     <hyperlink ref="E6" r:id="rId5" xr:uid="{53D9A1AA-225C-4CC1-A975-FE2285DDBB89}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{48F263BE-1070-4617-A007-10CFC7ADFECF}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{D3345E9E-6C47-4199-B26B-55C100A1A1F2}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{07F09FE6-C3F2-4059-89E4-A965057B8FED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B74360-BBEB-47A4-A44A-4EF5C0BF9AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9026C24-9A43-4869-9348-99820049069D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>Question</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/function-composition/solutions/3510406/o-1-sc-learn-composition-solution-in-js-and-typescript-learn-reduceright-day-7/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
+  </si>
+  <si>
+    <t>2703. Return Length of Arguments Passed</t>
+  </si>
+  <si>
+    <t>return args.length; Remember … is the rest parameter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/return-length-of-arguments-passed/solutions/3586843/learn-rest-parameter-argument-handling-in-function-1-line-easy-sol-in-js-ts/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
   </si>
 </sst>
 </file>
@@ -233,8 +242,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E9" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E9" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E10" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E10" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -509,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,6 +686,23 @@
         <v>32</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{B2B5E1F6-6623-4398-9CA9-8067410ACEB2}"/>
@@ -687,10 +713,11 @@
     <hyperlink ref="E7" r:id="rId6" xr:uid="{48F263BE-1070-4617-A007-10CFC7ADFECF}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{D3345E9E-6C47-4199-B26B-55C100A1A1F2}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{07F09FE6-C3F2-4059-89E4-A965057B8FED}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{E69AD6F5-B15F-4CA5-A117-43311E89A8F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9026C24-9A43-4869-9348-99820049069D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41076195-B22C-4DCE-9EE8-F3056C7ECD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Question</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/return-length-of-arguments-passed/solutions/3586843/learn-rest-parameter-argument-handling-in-function-1-line-easy-sol-in-js-ts/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
+  </si>
+  <si>
+    <t>2666. Allow One Function Call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/allow-one-function-call/solutions/3514065/o-1-sc-o-1-tc-4-diff-method-solution-in-js-and-typescript-day-8/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
+  </si>
+  <si>
+    <t>Use bool flag and store res as fn(…args), then return res.</t>
   </si>
 </sst>
 </file>
@@ -242,8 +251,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E10" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E10" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E11" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E11" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -518,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,6 +712,23 @@
         <v>35</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{B2B5E1F6-6623-4398-9CA9-8067410ACEB2}"/>
@@ -714,10 +740,11 @@
     <hyperlink ref="E8" r:id="rId7" xr:uid="{D3345E9E-6C47-4199-B26B-55C100A1A1F2}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{07F09FE6-C3F2-4059-89E4-A965057B8FED}"/>
     <hyperlink ref="E10" r:id="rId9" xr:uid="{E69AD6F5-B15F-4CA5-A117-43311E89A8F0}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{A1F2151B-93D2-49EF-A2D5-87A7940F6B40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41076195-B22C-4DCE-9EE8-F3056C7ECD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319EA34E-E93F-449D-B476-46EDFE6F97DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>Question</t>
   </si>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t>Use bool flag and store res as fn(…args), then return res.</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>2623. Memoize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/memoize/solutions/4879541/1-30-days-javascript-happy-day/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
+  </si>
+  <si>
+    <t>Use a memoized cache, and in the function use String(args) to create the key. We first check if the key is in the cache, else we store result as fn(…args) then put cache[key] as the result. Return result.</t>
   </si>
 </sst>
 </file>
@@ -173,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +195,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,11 +218,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -251,8 +270,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E11" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E11" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E12" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E12" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -527,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,6 +748,23 @@
         <v>37</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{B2B5E1F6-6623-4398-9CA9-8067410ACEB2}"/>
@@ -741,10 +777,11 @@
     <hyperlink ref="E9" r:id="rId8" xr:uid="{07F09FE6-C3F2-4059-89E4-A965057B8FED}"/>
     <hyperlink ref="E10" r:id="rId9" xr:uid="{E69AD6F5-B15F-4CA5-A117-43311E89A8F0}"/>
     <hyperlink ref="E11" r:id="rId10" xr:uid="{A1F2151B-93D2-49EF-A2D5-87A7940F6B40}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{3019753A-1EB1-4B42-95BD-B770B33138CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319EA34E-E93F-449D-B476-46EDFE6F97DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA2D7DB-F959-4170-A672-1CFDA4B5074E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Question</t>
   </si>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t>Use a memoized cache, and in the function use String(args) to create the key. We first check if the key is in the cache, else we store result as fn(…args) then put cache[key] as the result. Return result.</t>
+  </si>
+  <si>
+    <t>2723. Add Two Promises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/add-two-promises/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
+  </si>
+  <si>
+    <t>Use promises. Await Promis.all();</t>
+  </si>
+  <si>
+    <t>Promises and Time</t>
   </si>
 </sst>
 </file>
@@ -270,8 +282,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E12" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E12" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E13" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E13" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -546,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,6 +777,23 @@
         <v>41</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{B2B5E1F6-6623-4398-9CA9-8067410ACEB2}"/>
@@ -778,10 +807,11 @@
     <hyperlink ref="E10" r:id="rId9" xr:uid="{E69AD6F5-B15F-4CA5-A117-43311E89A8F0}"/>
     <hyperlink ref="E11" r:id="rId10" xr:uid="{A1F2151B-93D2-49EF-A2D5-87A7940F6B40}"/>
     <hyperlink ref="E12" r:id="rId11" xr:uid="{3019753A-1EB1-4B42-95BD-B770B33138CD}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{5225F98A-5ADB-4298-86CB-639B2C9CCDA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA2D7DB-F959-4170-A672-1CFDA4B5074E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F601791A-2F98-4822-965C-CA457BDF7541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>Question</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t>Promises and Time</t>
+  </si>
+  <si>
+    <t>2621. Sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/sleep/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
+  </si>
+  <si>
+    <t>Use async functions, await new Promise, and setTimeout();</t>
   </si>
 </sst>
 </file>
@@ -282,8 +291,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E13" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E13" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E14" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E14" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -558,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,6 +803,23 @@
         <v>44</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{B2B5E1F6-6623-4398-9CA9-8067410ACEB2}"/>
@@ -808,10 +834,11 @@
     <hyperlink ref="E11" r:id="rId10" xr:uid="{A1F2151B-93D2-49EF-A2D5-87A7940F6B40}"/>
     <hyperlink ref="E12" r:id="rId11" xr:uid="{3019753A-1EB1-4B42-95BD-B770B33138CD}"/>
     <hyperlink ref="E13" r:id="rId12" xr:uid="{5225F98A-5ADB-4298-86CB-639B2C9CCDA3}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{D08E8CC0-019E-4C7B-8034-07CA72B2B3FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F601791A-2F98-4822-965C-CA457BDF7541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF9F003-566D-4CDF-AE32-A3E7C299F527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>Question</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>Use async functions, await new Promise, and setTimeout();</t>
+  </si>
+  <si>
+    <t>2715. Timeout Cancellation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/timeout-cancellation/solutions/3725241/full-explanation-unlike-any-others/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
+  </si>
+  <si>
+    <t>We use clearTimeout and setTimeout to be able to schedule and cancel execution of functions.</t>
   </si>
 </sst>
 </file>
@@ -291,8 +300,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E14" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E14" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E15" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E15" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -567,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,6 +827,23 @@
       </c>
       <c r="E14" s="2" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -835,10 +861,11 @@
     <hyperlink ref="E12" r:id="rId11" xr:uid="{3019753A-1EB1-4B42-95BD-B770B33138CD}"/>
     <hyperlink ref="E13" r:id="rId12" xr:uid="{5225F98A-5ADB-4298-86CB-639B2C9CCDA3}"/>
     <hyperlink ref="E14" r:id="rId13" xr:uid="{D08E8CC0-019E-4C7B-8034-07CA72B2B3FF}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{D931D499-AC0E-4762-9B61-7460E0DF5FBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF9F003-566D-4CDF-AE32-A3E7C299F527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DC0A0C-F80F-415D-9624-4FA398881E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>Question</t>
   </si>
@@ -184,6 +184,15 @@
   </si>
   <si>
     <t>We use clearTimeout and setTimeout to be able to schedule and cancel execution of functions.</t>
+  </si>
+  <si>
+    <t>2725. Interval Cancellation</t>
+  </si>
+  <si>
+    <t>Call fn(…args); Set an intterval timer = setInterval() which calls fn(…args) every t milliseconds. We call fn(…args) before for the initial call. Then we define cancelFn, which clears the interval when called with clearInterval(timer). It is only called when cancellable is called.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/interval-cancellation/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
   </si>
 </sst>
 </file>
@@ -300,8 +309,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E15" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E15" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E16" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E16" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -576,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,6 +853,23 @@
       </c>
       <c r="E15" s="2" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -862,10 +888,11 @@
     <hyperlink ref="E13" r:id="rId12" xr:uid="{5225F98A-5ADB-4298-86CB-639B2C9CCDA3}"/>
     <hyperlink ref="E14" r:id="rId13" xr:uid="{D08E8CC0-019E-4C7B-8034-07CA72B2B3FF}"/>
     <hyperlink ref="E15" r:id="rId14" xr:uid="{D931D499-AC0E-4762-9B61-7460E0DF5FBE}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{BA7BA49E-49F6-4C83-A610-50C6F0D481AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DC0A0C-F80F-415D-9624-4FA398881E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219D9E40-F562-4A33-A355-DC00E738CD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>Question</t>
   </si>
@@ -193,6 +193,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/interval-cancellation/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
+  </si>
+  <si>
+    <t>2637. Promise Time Limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/promise-time-limit/solutions/3406548/easy-promise-race-solution/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
+  </si>
+  <si>
+    <t>You can use the Promise.race() function.</t>
   </si>
 </sst>
 </file>
@@ -309,8 +318,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E16" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E16" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E17" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E17" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -585,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,6 +879,23 @@
       </c>
       <c r="E16" s="2" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -889,10 +915,11 @@
     <hyperlink ref="E14" r:id="rId13" xr:uid="{D08E8CC0-019E-4C7B-8034-07CA72B2B3FF}"/>
     <hyperlink ref="E15" r:id="rId14" xr:uid="{D931D499-AC0E-4762-9B61-7460E0DF5FBE}"/>
     <hyperlink ref="E16" r:id="rId15" xr:uid="{BA7BA49E-49F6-4C83-A610-50C6F0D481AE}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{8CD3F009-2FCD-4440-BA0E-9285798314F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219D9E40-F562-4A33-A355-DC00E738CD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACCCC73-BEC7-425F-9C65-D12A9F53503F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>Question</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>You can use the Promise.race() function.</t>
+  </si>
+  <si>
+    <t>2622. Cache With Time Limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/cache-with-time-limit/solutions/3406927/javascript-short-simple-o-n-solution-using-settimeout/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
+  </si>
+  <si>
+    <t>Use a cache. Use setTimeout to remove items from the cache.If a key already exists in the cache, cancel its timeout.</t>
   </si>
 </sst>
 </file>
@@ -318,8 +327,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E17" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E17" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E18" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E18" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -594,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,6 +905,23 @@
       </c>
       <c r="E17" s="2" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -916,10 +942,11 @@
     <hyperlink ref="E15" r:id="rId14" xr:uid="{D931D499-AC0E-4762-9B61-7460E0DF5FBE}"/>
     <hyperlink ref="E16" r:id="rId15" xr:uid="{BA7BA49E-49F6-4C83-A610-50C6F0D481AE}"/>
     <hyperlink ref="E17" r:id="rId16" xr:uid="{8CD3F009-2FCD-4440-BA0E-9285798314F6}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{AFDBEE1B-5E9A-4D6C-A6E3-7C07F8449FF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACCCC73-BEC7-425F-9C65-D12A9F53503F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ABBDD0-5032-4935-92F5-94D5C8732E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t>Question</t>
   </si>
@@ -211,6 +211,15 @@
   </si>
   <si>
     <t>Use a cache. Use setTimeout to remove items from the cache.If a key already exists in the cache, cancel its timeout.</t>
+  </si>
+  <si>
+    <t>2627. Debounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/debounce/solutions/3416731/easiest-explanation-with-codesandbox-example-closure-settimeout-beats-99/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
+  </si>
+  <si>
+    <t>Use clearTImeout(timer) and let timer = setTimeout(() =&gt; fn(…args), t);</t>
   </si>
 </sst>
 </file>
@@ -327,8 +336,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E18" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E18" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E19" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E19" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -603,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,6 +931,23 @@
       </c>
       <c r="E18" s="2" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -943,10 +969,11 @@
     <hyperlink ref="E16" r:id="rId15" xr:uid="{BA7BA49E-49F6-4C83-A610-50C6F0D481AE}"/>
     <hyperlink ref="E17" r:id="rId16" xr:uid="{8CD3F009-2FCD-4440-BA0E-9285798314F6}"/>
     <hyperlink ref="E18" r:id="rId17" xr:uid="{AFDBEE1B-5E9A-4D6C-A6E3-7C07F8449FF4}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{8CA78893-3181-4A51-ABF1-67D15208929F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>
--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ABBDD0-5032-4935-92F5-94D5C8732E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931B80BD-E1F8-474A-85B1-6F157395C025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t>Question</t>
   </si>
@@ -220,6 +220,15 @@
   </si>
   <si>
     <t>Use clearTImeout(timer) and let timer = setTimeout(() =&gt; fn(…args), t);</t>
+  </si>
+  <si>
+    <t>2721. Execute Asynchronous Functions in Parallel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/execute-asynchronous-functions-in-parallel/solutions/3888598/promises-are-confusing-i-wrote-some-notes-down-for-you/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
+  </si>
+  <si>
+    <t>We need to replace each promise using the array's index in a .then(), because we don't know in advance when a promise will be resolved beforehand.;</t>
   </si>
 </sst>
 </file>
@@ -336,8 +345,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E19" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E19" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E20" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E20" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -612,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,6 +957,23 @@
       </c>
       <c r="E19" s="2" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -970,10 +996,11 @@
     <hyperlink ref="E17" r:id="rId16" xr:uid="{8CD3F009-2FCD-4440-BA0E-9285798314F6}"/>
     <hyperlink ref="E18" r:id="rId17" xr:uid="{AFDBEE1B-5E9A-4D6C-A6E3-7C07F8449FF4}"/>
     <hyperlink ref="E19" r:id="rId18" xr:uid="{8CA78893-3181-4A51-ABF1-67D15208929F}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{311BEDD9-9510-4E4E-83E7-5BC482D3BBA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>
--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931B80BD-E1F8-474A-85B1-6F157395C025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA10CE5-C90D-4D51-97E1-2EFA114827A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
   <si>
     <t>Question</t>
   </si>
@@ -229,6 +229,18 @@
   </si>
   <si>
     <t>We need to replace each promise using the array's index in a .then(), because we don't know in advance when a promise will be resolved beforehand.;</t>
+  </si>
+  <si>
+    <t>2727. Is Object Empty</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>Implement own isEmpty() with return Object.keys(obj).length === 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/is-object-empty/solutions/3609695/javascript-for-iterator-time-o-1-generator-function/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
   </si>
 </sst>
 </file>
@@ -345,8 +357,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E20" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E20" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E21" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E21" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -621,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,6 +986,23 @@
       </c>
       <c r="E20" s="2" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -997,10 +1026,11 @@
     <hyperlink ref="E18" r:id="rId17" xr:uid="{AFDBEE1B-5E9A-4D6C-A6E3-7C07F8449FF4}"/>
     <hyperlink ref="E19" r:id="rId18" xr:uid="{8CA78893-3181-4A51-ABF1-67D15208929F}"/>
     <hyperlink ref="E20" r:id="rId19" xr:uid="{311BEDD9-9510-4E4E-83E7-5BC482D3BBA0}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{904B326D-B2CF-42C1-9A9A-8ACF5C8D525D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>
--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA10CE5-C90D-4D51-97E1-2EFA114827A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EC8FC9-110F-4975-B149-8501873F107B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
   <si>
     <t>Question</t>
   </si>
@@ -241,6 +241,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/is-object-empty/solutions/3609695/javascript-for-iterator-time-o-1-generator-function/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
+  </si>
+  <si>
+    <t>2677. Chunk Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/chunk-array/solutions/4794305/recursion-slice/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
+  </si>
+  <si>
+    <t>You can use the .chunk function, but to manually implement, use recursion with … spread operator and arr.slice(). You can also do a for loop and push arr.slice()</t>
   </si>
 </sst>
 </file>
@@ -357,8 +366,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E21" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E21" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E22" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E22" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -633,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,6 +1012,23 @@
       </c>
       <c r="E21" s="2" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1027,10 +1053,11 @@
     <hyperlink ref="E19" r:id="rId18" xr:uid="{8CA78893-3181-4A51-ABF1-67D15208929F}"/>
     <hyperlink ref="E20" r:id="rId19" xr:uid="{311BEDD9-9510-4E4E-83E7-5BC482D3BBA0}"/>
     <hyperlink ref="E21" r:id="rId20" xr:uid="{904B326D-B2CF-42C1-9A9A-8ACF5C8D525D}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{CA53D63F-194C-434B-9050-2EC3DA1DD1D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>
--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EC8FC9-110F-4975-B149-8501873F107B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1CD3AD-B11C-4904-846A-63E6B2505B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
   <si>
     <t>Question</t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t>You can use the .chunk function, but to manually implement, use recursion with … spread operator and arr.slice(). You can also do a for loop and push arr.slice()</t>
+  </si>
+  <si>
+    <t>2619. Array Prototype Last</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/array-prototype-last/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
+  </si>
+  <si>
+    <t>We have to use this.length.</t>
   </si>
 </sst>
 </file>
@@ -366,8 +375,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E22" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E22" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E23" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E23" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -642,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,6 +1038,23 @@
       </c>
       <c r="E22" s="2" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1054,10 +1080,11 @@
     <hyperlink ref="E20" r:id="rId19" xr:uid="{311BEDD9-9510-4E4E-83E7-5BC482D3BBA0}"/>
     <hyperlink ref="E21" r:id="rId20" xr:uid="{904B326D-B2CF-42C1-9A9A-8ACF5C8D525D}"/>
     <hyperlink ref="E22" r:id="rId21" xr:uid="{CA53D63F-194C-434B-9050-2EC3DA1DD1D8}"/>
+    <hyperlink ref="E23" r:id="rId22" xr:uid="{82FC4A4E-4EFE-4E5C-A644-848A886DC239}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId23"/>
   </tableParts>
 </worksheet>
 </file>
--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1CD3AD-B11C-4904-846A-63E6B2505B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ACEA1B-0EDC-470B-8D99-332CC5DDB5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
   <si>
     <t>Question</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>We have to use this.length.</t>
+  </si>
+  <si>
+    <t>2631. Group By</t>
+  </si>
+  <si>
+    <t>Use reduce() to iterate over each item in the array. Group with fn as the key, them push(item) into grouped[key].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/group-by/solutions/3568048/groupby-detailed-explanation-easy/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
   </si>
 </sst>
 </file>
@@ -375,8 +384,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E23" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E23" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E24" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E24" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -651,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,6 +1064,23 @@
       </c>
       <c r="E23" s="2" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1081,10 +1107,11 @@
     <hyperlink ref="E21" r:id="rId20" xr:uid="{904B326D-B2CF-42C1-9A9A-8ACF5C8D525D}"/>
     <hyperlink ref="E22" r:id="rId21" xr:uid="{CA53D63F-194C-434B-9050-2EC3DA1DD1D8}"/>
     <hyperlink ref="E23" r:id="rId22" xr:uid="{82FC4A4E-4EFE-4E5C-A644-848A886DC239}"/>
+    <hyperlink ref="E24" r:id="rId23" xr:uid="{9BD8D053-50C2-45EF-B3E5-0F95466C3EEA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId23"/>
+    <tablePart r:id="rId24"/>
   </tableParts>
 </worksheet>
 </file>
--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ACEA1B-0EDC-470B-8D99-332CC5DDB5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FF9790-FBCF-4047-AF83-ED62B4C49659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
   <si>
     <t>Question</t>
   </si>
@@ -268,6 +268,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/group-by/solutions/3568048/groupby-detailed-explanation-easy/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
+  </si>
+  <si>
+    <t>2724. Sort By</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/sort-by/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom sort. return arr.sort((a,b) =&gt; fn(a) - fn(b)); </t>
   </si>
 </sst>
 </file>
@@ -384,8 +393,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E24" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E24" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E25" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E25" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -660,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,6 +1090,23 @@
       </c>
       <c r="E24" s="2" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1108,10 +1134,11 @@
     <hyperlink ref="E22" r:id="rId21" xr:uid="{CA53D63F-194C-434B-9050-2EC3DA1DD1D8}"/>
     <hyperlink ref="E23" r:id="rId22" xr:uid="{82FC4A4E-4EFE-4E5C-A644-848A886DC239}"/>
     <hyperlink ref="E24" r:id="rId23" xr:uid="{9BD8D053-50C2-45EF-B3E5-0F95466C3EEA}"/>
+    <hyperlink ref="E25" r:id="rId24" xr:uid="{48A74DC2-684D-44F3-8174-E1DAE8C6D024}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>
--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FF9790-FBCF-4047-AF83-ED62B4C49659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72C4B51-BF2A-47C1-B9CF-85A546ED967F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
   <si>
     <t>Question</t>
   </si>
@@ -277,6 +277,15 @@
   </si>
   <si>
     <t xml:space="preserve">Custom sort. return arr.sort((a,b) =&gt; fn(a) - fn(b)); </t>
+  </si>
+  <si>
+    <t>2722. Join Two Arrays by ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/join-two-arrays-by-id/solutions/3619941/fastest-easiest-solution-time-o-n-99-extra-space-o-n-95/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
+  </si>
+  <si>
+    <t>Use 2 for loops and set the index as arr[i].id. Return Object.values(res) at the end.</t>
   </si>
 </sst>
 </file>
@@ -393,8 +402,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E25" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E25" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E26" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E26" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -669,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,6 +1116,23 @@
       </c>
       <c r="E25" s="2" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1135,10 +1161,11 @@
     <hyperlink ref="E23" r:id="rId22" xr:uid="{82FC4A4E-4EFE-4E5C-A644-848A886DC239}"/>
     <hyperlink ref="E24" r:id="rId23" xr:uid="{9BD8D053-50C2-45EF-B3E5-0F95466C3EEA}"/>
     <hyperlink ref="E25" r:id="rId24" xr:uid="{48A74DC2-684D-44F3-8174-E1DAE8C6D024}"/>
+    <hyperlink ref="E26" r:id="rId25" xr:uid="{7BE713DF-5B4E-4E1F-9798-2350EB6950D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId26"/>
   </tableParts>
 </worksheet>
 </file>
--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72C4B51-BF2A-47C1-B9CF-85A546ED967F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF94DBB4-DA54-4410-A4B4-399F234A8DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="90">
   <si>
     <t>Question</t>
   </si>
@@ -286,6 +286,15 @@
   </si>
   <si>
     <t>Use 2 for loops and set the index as arr[i].id. Return Object.values(res) at the end.</t>
+  </si>
+  <si>
+    <t>2625. Flatten Deeply Nested Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flatten-deeply-nested-array/solutions/3563943/easy-solution-2625-flatten-deeply-nested-array-level-up-your-javascript-skills-day-22/?envType=study-plan-v2&amp;envId=30-days-of-javascript</t>
+  </si>
+  <si>
+    <t>We can use an iterative stack or recursive approach to store flattened results based on depth = n. Flatten for each level I in n, and we use the […arr] spread operator like this: stack.push(...item.map(subItem =&gt; [subItem, n - 1]));</t>
   </si>
 </sst>
 </file>
@@ -402,8 +411,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E26" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E26" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E27" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E27" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -678,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,6 +1142,23 @@
       </c>
       <c r="E26" s="2" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF94DBB4-DA54-4410-A4B4-399F234A8DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CD1018-2863-4830-893D-1F562AC08F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="93">
   <si>
     <t>Question</t>
   </si>
@@ -295,6 +295,15 @@
   </si>
   <si>
     <t>We can use an iterative stack or recursive approach to store flattened results based on depth = n. Flatten for each level I in n, and we use the […arr] spread operator like this: stack.push(...item.map(subItem =&gt; [subItem, n - 1]));</t>
+  </si>
+  <si>
+    <t>2705. Compact Object</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/compact-object/solutions/3567296/simple-easy-full-thorough-explanation-beginner-friendly/?envType=study-plan-v2&amp;envId=30-days-of-javascript</t>
+  </si>
+  <si>
+    <t>Check if obj is null, check if obj is an array and if so, use obj.filter(Boolean).map(), check if obj isnt typeof "object", then create the compacted array and recurse.</t>
   </si>
 </sst>
 </file>
@@ -411,8 +420,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E27" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E27" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E28" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E28" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -687,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,6 +1168,23 @@
       </c>
       <c r="E27" s="2" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1188,10 +1214,11 @@
     <hyperlink ref="E24" r:id="rId23" xr:uid="{9BD8D053-50C2-45EF-B3E5-0F95466C3EEA}"/>
     <hyperlink ref="E25" r:id="rId24" xr:uid="{48A74DC2-684D-44F3-8174-E1DAE8C6D024}"/>
     <hyperlink ref="E26" r:id="rId25" xr:uid="{7BE713DF-5B4E-4E1F-9798-2350EB6950D6}"/>
+    <hyperlink ref="E28" r:id="rId26" xr:uid="{5DD6AF00-F53A-428E-993D-AAE94637F6EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId26"/>
+    <tablePart r:id="rId27"/>
   </tableParts>
 </worksheet>
 </file>
--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CD1018-2863-4830-893D-1F562AC08F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C748F5C6-175F-421F-A8BA-3EA86168EB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="97">
   <si>
     <t>Question</t>
   </si>
@@ -304,6 +304,18 @@
   </si>
   <si>
     <t>Check if obj is null, check if obj is an array and if so, use obj.filter(Boolean).map(), check if obj isnt typeof "object", then create the compacted array and recurse.</t>
+  </si>
+  <si>
+    <t>Event Emitter</t>
+  </si>
+  <si>
+    <t>2694. Event Emitter</t>
+  </si>
+  <si>
+    <t>Use a list in a constructor to push callbacks to events, similar to a Java Hashmap. Unsubscribe with a for loop and .splice(). Emit using a res list and push using for loop with …args.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/event-emitter/solutions/3581182/custom-event-emitter-detailed-explanation/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
   </si>
 </sst>
 </file>
@@ -420,8 +432,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E28" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E28" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E29" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E29" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -696,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,6 +1197,23 @@
       </c>
       <c r="E28" s="2" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1215,10 +1244,11 @@
     <hyperlink ref="E25" r:id="rId24" xr:uid="{48A74DC2-684D-44F3-8174-E1DAE8C6D024}"/>
     <hyperlink ref="E26" r:id="rId25" xr:uid="{7BE713DF-5B4E-4E1F-9798-2350EB6950D6}"/>
     <hyperlink ref="E28" r:id="rId26" xr:uid="{5DD6AF00-F53A-428E-993D-AAE94637F6EC}"/>
+    <hyperlink ref="E29" r:id="rId27" xr:uid="{4AAD65D3-EA1F-4C2A-BDCF-B280C545AB1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId27"/>
+    <tablePart r:id="rId28"/>
   </tableParts>
 </worksheet>
 </file>
--- a/javascript/JS30.xlsx
+++ b/javascript/JS30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C748F5C6-175F-421F-A8BA-3EA86168EB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D12917E-4D27-4535-8ABB-6BBF1784B814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="103">
   <si>
     <t>Question</t>
   </si>
@@ -306,9 +306,6 @@
     <t>Check if obj is null, check if obj is an array and if so, use obj.filter(Boolean).map(), check if obj isnt typeof "object", then create the compacted array and recurse.</t>
   </si>
   <si>
-    <t>Event Emitter</t>
-  </si>
-  <si>
     <t>2694. Event Emitter</t>
   </si>
   <si>
@@ -316,6 +313,27 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/event-emitter/solutions/3581182/custom-event-emitter-detailed-explanation/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>2696. Array Wrapper</t>
+  </si>
+  <si>
+    <t>2726. Calculator with Method Chaining</t>
+  </si>
+  <si>
+    <t>Set this.nums = nums. For valueOf, you can use .reduce() and for toString, template literal with .join(). For the summing operation, you can also implement with a for loop to sum all the elements of nums.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/array-wrapper/solutions/3584650/2695-array-wrapper-level-up-your-js-skills-with-these-intuitive-implementations-day-28/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/calculator-with-method-chaining/solutions/4001322/a-simple-class-solution/?envType=study-plan-v2&amp;envId=30-days-of-javascript </t>
+  </si>
+  <si>
+    <t>Use this keyword. The class variable res doesn't need to be initialized in advance.</t>
   </si>
 </sst>
 </file>
@@ -432,8 +450,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E29" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E29" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}" name="Table2" displayName="Table2" ref="A1:E31" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E31" xr:uid="{7DB2D017-D6D2-48A0-99EB-53610C4A9BCB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDA2872B-ACF7-4FF5-812C-7CCD7B6460CF}" name="Question"/>
     <tableColumn id="2" xr3:uid="{D295EE85-FD2A-443A-8FC0-40FB0E91E000}" name="Difficulty" dataDxfId="0"/>
@@ -708,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,19 +1219,53 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="2" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
         <v>96</v>
+      </c>
+      <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1245,10 +1297,12 @@
     <hyperlink ref="E26" r:id="rId25" xr:uid="{7BE713DF-5B4E-4E1F-9798-2350EB6950D6}"/>
     <hyperlink ref="E28" r:id="rId26" xr:uid="{5DD6AF00-F53A-428E-993D-AAE94637F6EC}"/>
     <hyperlink ref="E29" r:id="rId27" xr:uid="{4AAD65D3-EA1F-4C2A-BDCF-B280C545AB1E}"/>
+    <hyperlink ref="E30" r:id="rId28" xr:uid="{D3B9B584-414D-4508-B768-8D390B7713FD}"/>
+    <hyperlink ref="E31" r:id="rId29" xr:uid="{2327051D-A1C4-4AA4-A113-6C2E0ABE98DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId28"/>
+    <tablePart r:id="rId30"/>
   </tableParts>
 </worksheet>
 </file>